--- a/raw-data/01-block-1-map.xlsx
+++ b/raw-data/01-block-1-map.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbf9a23e224bd51a/Documents/GitHub/Chlamydomonas_mic_JRL_2024/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="919" documentId="8_{FB8F087E-4114-4CD7-BBEF-6C25E970F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE83B77-B3FF-4254-8AA3-F7A857DAD90E}"/>
+  <xr:revisionPtr revIDLastSave="1108" documentId="8_{FB8F087E-4114-4CD7-BBEF-6C25E970F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C88FDC-BE63-4B60-9AE1-6FADFA7BAA1E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="12" xr2:uid="{80F73A02-C2A8-4BE1-A957-DB27E471ED1A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{80F73A02-C2A8-4BE1-A957-DB27E471ED1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
     <sheet name="Notes on sample mapping" sheetId="13" r:id="rId2"/>
     <sheet name="Solution dilution" sheetId="12" r:id="rId3"/>
-    <sheet name="8C" sheetId="2" r:id="rId4"/>
-    <sheet name="14C" sheetId="4" r:id="rId5"/>
-    <sheet name="20C" sheetId="5" r:id="rId6"/>
-    <sheet name="25C" sheetId="6" r:id="rId7"/>
-    <sheet name="33C" sheetId="7" r:id="rId8"/>
-    <sheet name="35C" sheetId="8" r:id="rId9"/>
-    <sheet name="37C" sheetId="9" r:id="rId10"/>
-    <sheet name="40C" sheetId="10" r:id="rId11"/>
-    <sheet name="43C" sheetId="11" r:id="rId12"/>
-    <sheet name="30C (base T)" sheetId="3" r:id="rId13"/>
+    <sheet name="Bacterial inocula" sheetId="14" r:id="rId4"/>
+    <sheet name="8C" sheetId="2" r:id="rId5"/>
+    <sheet name="14C" sheetId="4" r:id="rId6"/>
+    <sheet name="20C" sheetId="5" r:id="rId7"/>
+    <sheet name="25C" sheetId="6" r:id="rId8"/>
+    <sheet name="33C" sheetId="7" r:id="rId9"/>
+    <sheet name="35C" sheetId="8" r:id="rId10"/>
+    <sheet name="37C" sheetId="9" r:id="rId11"/>
+    <sheet name="40C" sheetId="10" r:id="rId12"/>
+    <sheet name="43C" sheetId="11" r:id="rId13"/>
+    <sheet name="30C (base T)" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10812" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10884" uniqueCount="169">
   <si>
     <r>
       <t xml:space="preserve">First of three temporal blocks for the </t>
@@ -516,6 +517,207 @@
   <si>
     <t>Wells with Chlamy will be labelled with a C. switched to circling them</t>
   </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>Strain name</t>
+  </si>
+  <si>
+    <t>Bacterial # ID</t>
+  </si>
+  <si>
+    <t>0 (none)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>OD (centrifuged, washed, resuspended)</t>
+  </si>
+  <si>
+    <t>Rebecca Doyle (McMaster)</t>
+  </si>
+  <si>
+    <t>Rebecca Shapiro (Guelph)</t>
+  </si>
+  <si>
+    <t>Jackie Goordial (Guelph)</t>
+  </si>
+  <si>
+    <t>Megan Frederickson (Toronto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genus, species </t>
+  </si>
+  <si>
+    <t>Ensifer meliloti</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>RD-1022</t>
+  </si>
+  <si>
+    <t>RD-1021</t>
+  </si>
+  <si>
+    <t>Good N fixer</t>
+  </si>
+  <si>
+    <t>Bad N fixer</t>
+  </si>
+  <si>
+    <t>RS-FRS-616-WT</t>
+  </si>
+  <si>
+    <t>Diploid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pseudoarthrobacter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>psychrotolerans</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>EM1</t>
+  </si>
+  <si>
+    <t>Nesternkonia halotolerans</t>
+  </si>
+  <si>
+    <t>EM2</t>
+  </si>
+  <si>
+    <t>Paenisporosarcina macmurdoensis</t>
+  </si>
+  <si>
+    <t>LM4</t>
+  </si>
+  <si>
+    <t>Pseudoarthrobacter sulfinovorans/siccitolerans</t>
+  </si>
+  <si>
+    <t>CW22</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>1/15th of each strain</t>
+  </si>
+  <si>
+    <t>Cells/mL</t>
+  </si>
+  <si>
+    <t>Cells/µL</t>
+  </si>
+  <si>
+    <t>OD (blank)</t>
+  </si>
+  <si>
+    <t>OD (bac)</t>
+  </si>
+  <si>
+    <t>V to make (µL)</t>
+  </si>
+  <si>
+    <t>Cells needed (5000 cells/µL)</t>
+  </si>
+  <si>
+    <t>Volume of culture needed</t>
+  </si>
+  <si>
+    <t>Blank volume needed</t>
+  </si>
+  <si>
+    <t>Bacillus aerius</t>
+  </si>
+  <si>
+    <t>MF-002-6</t>
+  </si>
+  <si>
+    <t>Citrobacter braakii</t>
+  </si>
+  <si>
+    <t>MF-0015-7a</t>
+  </si>
+  <si>
+    <t>Rhizobium rosettiformans</t>
+  </si>
+  <si>
+    <t>MF-008-11</t>
+  </si>
+  <si>
+    <t>Pseudomonas protogens</t>
+  </si>
+  <si>
+    <t>MF-032-02</t>
+  </si>
+  <si>
+    <t>Sphingomonas pituitosa</t>
+  </si>
+  <si>
+    <t>MF-032-07</t>
+  </si>
+  <si>
+    <t>Rhodococcus qingshengii</t>
+  </si>
+  <si>
+    <t>MF 094-Mt9</t>
+  </si>
+  <si>
+    <t>Rhizorhabdus phycosphaerae</t>
+  </si>
+  <si>
+    <t>MF_T_col-5</t>
+  </si>
+  <si>
+    <t>MF-013-1661</t>
+  </si>
+  <si>
+    <t>Pseudomonas putida</t>
+  </si>
 </sst>
 </file>
 
@@ -582,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,6 +1566,3327 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46539F8-8D90-4D4B-823A-11D655C67F4F}">
+  <dimension ref="A1:I121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f t="shared" ref="A2:A65" si="0">ROUNDUP(B2/60, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.7134831370791996E-3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.8074807598405518E-2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9526275951915593E-2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1">
+        <v>97</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.6771199791678422E-2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1">
+        <v>64</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.4057024935238553E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.1515132346790393E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.2688983067376358E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.9699994512248953E-2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.6275748485306272E-2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7.87040857996405E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8.301499424688652E-2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.3347907422346323E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.10851977697653059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.11737383222497544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1">
+        <v>77</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.14349052691353503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.17429034701079826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.18743286595514641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.18827977315557831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.19433377807112073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1">
+        <v>87</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.19793802971361374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.19945867371185033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.20125092773639486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="1">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.21503890528586189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2323232575640255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.24309273254511998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.25709958912575681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.25815353693651577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.27191330547650083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.27529469158732267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.28123036258878031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1">
+        <v>83</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.28193274122208334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="1">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1">
+        <v>93</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.28768759122735643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1">
+        <v>92</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.30297196313973562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.30339983216158473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.32156543092329615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.32935059402594169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="1">
+        <v>35</v>
+      </c>
+      <c r="G38" s="1">
+        <v>90</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.32997315861406573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1">
+        <v>35</v>
+      </c>
+      <c r="G39" s="1">
+        <v>61</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.33211049467022669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.33668773616573633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1">
+        <v>35</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.35083382139654173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1">
+        <v>35</v>
+      </c>
+      <c r="G42" s="1">
+        <v>68</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.3739225374069749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1">
+        <v>35</v>
+      </c>
+      <c r="G43" s="1">
+        <v>80</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.38508244123664637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="1">
+        <v>35</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.38730326799986603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1">
+        <v>35</v>
+      </c>
+      <c r="G45" s="1">
+        <v>59</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.40685515863227484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.4074842810633964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="1">
+        <v>35</v>
+      </c>
+      <c r="G47" s="1">
+        <v>20</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.40752979309247606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="1">
+        <v>35</v>
+      </c>
+      <c r="G48" s="1">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.40840952262192165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="1">
+        <v>35</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.43405385209033587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="1">
+        <v>35</v>
+      </c>
+      <c r="G50" s="1">
+        <v>52</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.43652174599851368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="1">
+        <v>35</v>
+      </c>
+      <c r="G51" s="1">
+        <v>48</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.44124360355891445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="1">
+        <v>35</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.47260940982736099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>35</v>
+      </c>
+      <c r="G53" s="1">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.4729299155797535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="1">
+        <v>35</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.48553612776576682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="1">
+        <v>35</v>
+      </c>
+      <c r="G55" s="1">
+        <v>40</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.49271498723486329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="1">
+        <v>35</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.50951008332025238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="1">
+        <v>35</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.51061327710393134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1">
+        <v>35</v>
+      </c>
+      <c r="G58" s="1">
+        <v>86</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.52249202779450044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="1">
+        <v>35</v>
+      </c>
+      <c r="G59" s="1">
+        <v>72</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.53130645103732788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="1">
+        <v>35</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.56748905966262997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="1">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.57877345654406087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="1">
+        <v>35</v>
+      </c>
+      <c r="G62" s="1">
+        <v>25</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.58277457627026441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1">
+        <v>35</v>
+      </c>
+      <c r="G63" s="1">
+        <v>50</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.59907162534306857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="1">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.60093739669312007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="1">
+        <v>35</v>
+      </c>
+      <c r="G65" s="1">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.60257825092211614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f t="shared" ref="A66:A121" si="1">ROUNDUP(B66/60, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="1">
+        <v>35</v>
+      </c>
+      <c r="G66" s="1">
+        <v>69</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.60354422919395312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="1">
+        <v>35</v>
+      </c>
+      <c r="G67" s="1">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.6062920124960367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="1">
+        <v>35</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.61208279260540166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="1">
+        <v>35</v>
+      </c>
+      <c r="G69" s="1">
+        <v>89</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.61441842015466452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="1">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="1">
+        <v>35</v>
+      </c>
+      <c r="G70" s="1">
+        <v>95</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.62309706685545296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="1">
+        <v>35</v>
+      </c>
+      <c r="G71" s="1">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.6400054194826037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1">
+        <v>35</v>
+      </c>
+      <c r="G72" s="1">
+        <v>79</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.64240189422954275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="1">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="1">
+        <v>35</v>
+      </c>
+      <c r="G73" s="1">
+        <v>85</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.64691986521130729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="1">
+        <v>35</v>
+      </c>
+      <c r="G74" s="1">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.64885606926759232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="1">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="1">
+        <v>35</v>
+      </c>
+      <c r="G75" s="1">
+        <v>42</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.65446455088814093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="1">
+        <v>35</v>
+      </c>
+      <c r="G76" s="1">
+        <v>9</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.66881275285095332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="1">
+        <v>35</v>
+      </c>
+      <c r="G77" s="1">
+        <v>99</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.68988438647627248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="1">
+        <v>35</v>
+      </c>
+      <c r="G78" s="1">
+        <v>46</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.69333500359845968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="1">
+        <v>35</v>
+      </c>
+      <c r="G79" s="1">
+        <v>60</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.71389476261565576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="1">
+        <v>35</v>
+      </c>
+      <c r="G80" s="1">
+        <v>13</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.71553247428667111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="1">
+        <v>35</v>
+      </c>
+      <c r="G81" s="1">
+        <v>56</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.71829896303113183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="1">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="1">
+        <v>35</v>
+      </c>
+      <c r="G82" s="1">
+        <v>71</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.73986777306618501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="1">
+        <v>35</v>
+      </c>
+      <c r="G83" s="1">
+        <v>54</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.74502255020211605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="1">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="1">
+        <v>35</v>
+      </c>
+      <c r="G84" s="1">
+        <v>73</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.74798778961215495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="1">
+        <v>35</v>
+      </c>
+      <c r="G85" s="1">
+        <v>57</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.7559781615926261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="1">
+        <v>35</v>
+      </c>
+      <c r="G86" s="1">
+        <v>51</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.76010479733713954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="1">
+        <v>35</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.76594979411883735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="1">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="1">
+        <v>35</v>
+      </c>
+      <c r="G88" s="1">
+        <v>37</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.77877695238787947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="1">
+        <v>35</v>
+      </c>
+      <c r="G89" s="1">
+        <v>84</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.78083506228804289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="1">
+        <v>35</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.79037583134207889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="1">
+        <v>35</v>
+      </c>
+      <c r="G91" s="1">
+        <v>18</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.79261566194075539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="1">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="1">
+        <v>35</v>
+      </c>
+      <c r="G92" s="1">
+        <v>74</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.79507307114915082</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="1">
+        <v>35</v>
+      </c>
+      <c r="G93" s="1">
+        <v>17</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.79585597526508789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="1">
+        <v>35</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.79916331057935974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="1">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="1">
+        <v>35</v>
+      </c>
+      <c r="G95" s="1">
+        <v>38</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.81058728716957495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="1">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F96" s="1">
+        <v>35</v>
+      </c>
+      <c r="G96" s="1">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.81223563604436799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" s="1">
+        <v>35</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.81303795780224863</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="1">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="1">
+        <v>35</v>
+      </c>
+      <c r="G98" s="1">
+        <v>45</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.82642372997473135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="1">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="1">
+        <v>35</v>
+      </c>
+      <c r="G99" s="1">
+        <v>76</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.82806415805409805</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="1">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" s="1">
+        <v>35</v>
+      </c>
+      <c r="G100" s="1">
+        <v>41</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.82948423596904297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="1">
+        <v>35</v>
+      </c>
+      <c r="G101" s="1">
+        <v>7</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.82987256676864474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F102" s="1">
+        <v>35</v>
+      </c>
+      <c r="G102" s="1">
+        <v>49</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.84334248242390764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="1">
+        <v>35</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.84424784937251218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F104" s="1">
+        <v>35</v>
+      </c>
+      <c r="G104" s="1">
+        <v>66</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.84779829081383073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="1">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" s="1">
+        <v>35</v>
+      </c>
+      <c r="G105" s="1">
+        <v>21</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.8511659396578507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="1">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="1">
+        <v>35</v>
+      </c>
+      <c r="G106" s="1">
+        <v>31</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.85472044295439453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="1">
+        <v>35</v>
+      </c>
+      <c r="G107" s="1">
+        <v>11</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.87559791334712911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="1">
+        <v>35</v>
+      </c>
+      <c r="G108" s="1">
+        <v>67</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.88742807509074961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="1">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="1">
+        <v>35</v>
+      </c>
+      <c r="G109" s="1">
+        <v>82</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.8932038113073113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="1">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="1">
+        <v>35</v>
+      </c>
+      <c r="G110" s="1">
+        <v>96</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.90120292513271694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="1">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="1">
+        <v>35</v>
+      </c>
+      <c r="G111" s="1">
+        <v>34</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.90771740358808906</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="1">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="1">
+        <v>35</v>
+      </c>
+      <c r="G112" s="1">
+        <v>75</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.9121065459919846</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" s="1">
+        <v>35</v>
+      </c>
+      <c r="G113" s="1">
+        <v>78</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.91777745681770184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="1">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="1">
+        <v>35</v>
+      </c>
+      <c r="G114" s="1">
+        <v>33</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.94361641766470383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="1">
+        <v>35</v>
+      </c>
+      <c r="G115" s="1">
+        <v>98</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.95245829450670227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" s="1">
+        <v>35</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.96371851600871228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="1">
+        <v>35</v>
+      </c>
+      <c r="G117" s="1">
+        <v>14</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.96605032157138471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B118" s="1">
+        <v>117</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="1">
+        <v>35</v>
+      </c>
+      <c r="G118" s="1">
+        <v>81</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.98736081865207503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>118</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="1">
+        <v>35</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.98816576408029932</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B120" s="1">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="1">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="1">
+        <v>35</v>
+      </c>
+      <c r="G120" s="1">
+        <v>44</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.98948802950427683</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B121" s="1">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="1">
+        <v>12</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="1">
+        <v>35</v>
+      </c>
+      <c r="G121" s="1">
+        <v>36</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.99696578028961802</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H121">
+    <sortCondition ref="H2:H121"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F79E1F-D6B0-40A2-80BA-C03DBCB988C5}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -4681,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51ECF73-EDC1-4471-B263-34AA58CCDF95}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -8002,7 +11528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED38B0D-A384-49C1-8B58-F409FFB1A781}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -11323,12 +14849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB5EAEC-7CD0-4338-A5F1-30276D721733}">
   <dimension ref="A1:K1921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1082" workbookViewId="0">
-      <selection activeCell="K1099" sqref="K1099"/>
+    <sheetView topLeftCell="A1912" workbookViewId="0">
+      <selection activeCell="G1922" sqref="G1922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74942,7 +78468,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75394,6 +78920,780 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3C6FC3-7371-40C0-9E7B-A95975BFBAEC}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="13.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2-F2</f>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2*(8*10^8)</f>
+        <v>88799999.999999985</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/1000</f>
+        <v>88799.999999999985</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2*5000</f>
+        <v>15000000</v>
+      </c>
+      <c r="L2" s="2">
+        <f>K2/I2</f>
+        <v>168.91891891891893</v>
+      </c>
+      <c r="M2" s="2">
+        <f>J2-L2</f>
+        <v>2831.0810810810813</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G16" si="0">E3-F3</f>
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H16" si="1">G3*(8*10^8)</f>
+        <v>48000000</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I16" si="2">H3/1000</f>
+        <v>48000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K18" si="3">J3*5000</f>
+        <v>15000000</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L16" si="4">K3/I3</f>
+        <v>312.5</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M16" si="5">J3-L3</f>
+        <v>2687.5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>24000000</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="4"/>
+        <v>625</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="5"/>
+        <v>2375</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>8000000.0000000075</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>8000.0000000000073</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
+        <v>1874.9999999999982</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="5"/>
+        <v>1125.0000000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>8000000.0000000075</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>8000.0000000000073</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>1874.9999999999982</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
+        <v>1125.0000000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L7" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L8" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L9" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L10" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L11" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L12" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L13" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L14" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L15" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="L16" s="2" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140EEF4A-49AC-4542-BE9E-2E7920CCF938}">
   <dimension ref="A1:K121"/>
   <sheetViews>
@@ -78715,7 +83015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4A4FF1-7A3E-4521-A5E1-B5A6407587A0}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -82036,7 +86336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2B4E45-C38C-4998-99EA-F279EF127716}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -85357,7 +89657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC3527-CE8D-4647-A7E1-C8820E827926}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -88678,7 +92978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98056E6F-BF5E-4CDB-BD42-28D9AEF9F3D9}">
   <dimension ref="A1:I121"/>
   <sheetViews>
@@ -91997,3325 +96297,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46539F8-8D90-4D4B-823A-11D655C67F4F}">
-  <dimension ref="A1:I121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <f t="shared" ref="A2:A65" si="0">ROUNDUP(B2/60, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.7134831370791996E-3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="1">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.8074807598405518E-2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="1">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1">
-        <v>91</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.9526275951915593E-2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>97</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3.6771199791678422E-2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>64</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.4057024935238553E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="1">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.1515132346790393E-2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6.2688983067376358E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="1">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6.9699994512248953E-2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="1">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7.6275748485306272E-2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7.87040857996405E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1">
-        <v>8.301499424688652E-2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1">
-        <v>8.3347907422346323E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.10851977697653059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1">
-        <v>35</v>
-      </c>
-      <c r="G15" s="1">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.11737383222497544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.14349052691353503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="1">
-        <v>35</v>
-      </c>
-      <c r="G17" s="1">
-        <v>35</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.17429034701079826</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.18743286595514641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.18827977315557831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1">
-        <v>53</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.19433377807112073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1">
-        <v>87</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.19793802971361374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="1">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.19945867371185033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="1">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1">
-        <v>94</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.20125092773639486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.21503890528586189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="1">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1">
-        <v>47</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.2323232575640255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="1">
-        <v>35</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.24309273254511998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1">
-        <v>35</v>
-      </c>
-      <c r="G27" s="1">
-        <v>65</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.25709958912575681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1">
-        <v>35</v>
-      </c>
-      <c r="G28" s="1">
-        <v>55</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.25815353693651577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="1">
-        <v>35</v>
-      </c>
-      <c r="G29" s="1">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.27191330547650083</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="1">
-        <v>35</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.27529469158732267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="1">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.28123036258878031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="1">
-        <v>35</v>
-      </c>
-      <c r="G32" s="1">
-        <v>83</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.28193274122208334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1">
-        <v>35</v>
-      </c>
-      <c r="G33" s="1">
-        <v>93</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.28768759122735643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="1">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="1">
-        <v>35</v>
-      </c>
-      <c r="G34" s="1">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.30297196313973562</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="1">
-        <v>35</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.30339983216158473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="1">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="1">
-        <v>35</v>
-      </c>
-      <c r="G36" s="1">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.32156543092329615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="1">
-        <v>35</v>
-      </c>
-      <c r="G37" s="1">
-        <v>88</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.32935059402594169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="1">
-        <v>35</v>
-      </c>
-      <c r="G38" s="1">
-        <v>90</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.32997315861406573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="1">
-        <v>35</v>
-      </c>
-      <c r="G39" s="1">
-        <v>61</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.33211049467022669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="1">
-        <v>35</v>
-      </c>
-      <c r="G40" s="1">
-        <v>63</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.33668773616573633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="1">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="1">
-        <v>35</v>
-      </c>
-      <c r="G41" s="1">
-        <v>43</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.35083382139654173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="1">
-        <v>35</v>
-      </c>
-      <c r="G42" s="1">
-        <v>68</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.3739225374069749</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="1">
-        <v>35</v>
-      </c>
-      <c r="G43" s="1">
-        <v>80</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.38508244123664637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="1">
-        <v>35</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.38730326799986603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="1">
-        <v>35</v>
-      </c>
-      <c r="G45" s="1">
-        <v>59</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.40685515863227484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="1">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>35</v>
-      </c>
-      <c r="G46" s="1">
-        <v>23</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.4074842810633964</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="1">
-        <v>35</v>
-      </c>
-      <c r="G47" s="1">
-        <v>20</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.40752979309247606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="1">
-        <v>35</v>
-      </c>
-      <c r="G48" s="1">
-        <v>29</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.40840952262192165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="1">
-        <v>35</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.43405385209033587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B50" s="1">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="1">
-        <v>35</v>
-      </c>
-      <c r="G50" s="1">
-        <v>52</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.43652174599851368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="1">
-        <v>35</v>
-      </c>
-      <c r="G51" s="1">
-        <v>48</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.44124360355891445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B52" s="1">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="1">
-        <v>35</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.47260940982736099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="1">
-        <v>35</v>
-      </c>
-      <c r="G53" s="1">
-        <v>62</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.4729299155797535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B54" s="1">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="1">
-        <v>35</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.48553612776576682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B55" s="1">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="1">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="1">
-        <v>35</v>
-      </c>
-      <c r="G55" s="1">
-        <v>40</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.49271498723486329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B56" s="1">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="1">
-        <v>35</v>
-      </c>
-      <c r="G56" s="1">
-        <v>6</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.50951008332025238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B57" s="1">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="1">
-        <v>35</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.51061327710393134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B58" s="1">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="1">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="1">
-        <v>35</v>
-      </c>
-      <c r="G58" s="1">
-        <v>86</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.52249202779450044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B59" s="1">
-        <v>58</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="1">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="1">
-        <v>35</v>
-      </c>
-      <c r="G59" s="1">
-        <v>72</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.53130645103732788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B60" s="1">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="1">
-        <v>4</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="1">
-        <v>35</v>
-      </c>
-      <c r="G60" s="1">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.56748905966262997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B61" s="1">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="1">
-        <v>35</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.57877345654406087</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B62" s="1">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="1">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="1">
-        <v>35</v>
-      </c>
-      <c r="G62" s="1">
-        <v>25</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.58277457627026441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B63" s="1">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="1">
-        <v>35</v>
-      </c>
-      <c r="G63" s="1">
-        <v>50</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.59907162534306857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B64" s="1">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="1">
-        <v>35</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.60093739669312007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B65" s="1">
-        <v>64</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="1">
-        <v>10</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="1">
-        <v>35</v>
-      </c>
-      <c r="G65" s="1">
-        <v>30</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.60257825092211614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <f t="shared" ref="A66:A121" si="1">ROUNDUP(B66/60, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="B66" s="1">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="1">
-        <v>35</v>
-      </c>
-      <c r="G66" s="1">
-        <v>69</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.60354422919395312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B67" s="1">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="1">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="1">
-        <v>35</v>
-      </c>
-      <c r="G67" s="1">
-        <v>24</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.6062920124960367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B68" s="1">
-        <v>67</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="1">
-        <v>35</v>
-      </c>
-      <c r="G68" s="1">
-        <v>5</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.61208279260540166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B69" s="1">
-        <v>68</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="1">
-        <v>13</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="1">
-        <v>35</v>
-      </c>
-      <c r="G69" s="1">
-        <v>89</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.61441842015466452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B70" s="1">
-        <v>69</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="1">
-        <v>15</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="1">
-        <v>35</v>
-      </c>
-      <c r="G70" s="1">
-        <v>95</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.62309706685545296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B71" s="1">
-        <v>70</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="1">
-        <v>35</v>
-      </c>
-      <c r="G71" s="1">
-        <v>19</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.6400054194826037</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B72" s="1">
-        <v>71</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="1">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="1">
-        <v>35</v>
-      </c>
-      <c r="G72" s="1">
-        <v>79</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0.64240189422954275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B73" s="1">
-        <v>72</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="1">
-        <v>12</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="1">
-        <v>35</v>
-      </c>
-      <c r="G73" s="1">
-        <v>85</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.64691986521130729</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B74" s="1">
-        <v>73</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="1">
-        <v>6</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" s="1">
-        <v>35</v>
-      </c>
-      <c r="G74" s="1">
-        <v>16</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0.64885606926759232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B75" s="1">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="1">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="1">
-        <v>35</v>
-      </c>
-      <c r="G75" s="1">
-        <v>42</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.65446455088814093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B76" s="1">
-        <v>75</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="1">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" s="1">
-        <v>35</v>
-      </c>
-      <c r="G76" s="1">
-        <v>9</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.66881275285095332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B77" s="1">
-        <v>76</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="1">
-        <v>35</v>
-      </c>
-      <c r="G77" s="1">
-        <v>99</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0.68988438647627248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B78" s="1">
-        <v>77</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F78" s="1">
-        <v>35</v>
-      </c>
-      <c r="G78" s="1">
-        <v>46</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0.69333500359845968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B79" s="1">
-        <v>78</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F79" s="1">
-        <v>35</v>
-      </c>
-      <c r="G79" s="1">
-        <v>60</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.71389476261565576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B80" s="1">
-        <v>79</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="1">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F80" s="1">
-        <v>35</v>
-      </c>
-      <c r="G80" s="1">
-        <v>13</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0.71553247428667111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B81" s="1">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="1">
-        <v>35</v>
-      </c>
-      <c r="G81" s="1">
-        <v>56</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0.71829896303113183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B82" s="1">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="1">
-        <v>7</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F82" s="1">
-        <v>35</v>
-      </c>
-      <c r="G82" s="1">
-        <v>71</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0.73986777306618501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B83" s="1">
-        <v>82</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="1">
-        <v>35</v>
-      </c>
-      <c r="G83" s="1">
-        <v>54</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.74502255020211605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B84" s="1">
-        <v>83</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="1">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="1">
-        <v>35</v>
-      </c>
-      <c r="G84" s="1">
-        <v>73</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0.74798778961215495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B85" s="1">
-        <v>84</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F85" s="1">
-        <v>35</v>
-      </c>
-      <c r="G85" s="1">
-        <v>57</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.7559781615926261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B86" s="1">
-        <v>85</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="1">
-        <v>35</v>
-      </c>
-      <c r="G86" s="1">
-        <v>51</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0.76010479733713954</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B87" s="1">
-        <v>86</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F87" s="1">
-        <v>35</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0.76594979411883735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B88" s="1">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="1">
-        <v>13</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="1">
-        <v>35</v>
-      </c>
-      <c r="G88" s="1">
-        <v>37</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0.77877695238787947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B89" s="1">
-        <v>88</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="1">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F89" s="1">
-        <v>35</v>
-      </c>
-      <c r="G89" s="1">
-        <v>84</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0.78083506228804289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B90" s="1">
-        <v>89</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F90" s="1">
-        <v>35</v>
-      </c>
-      <c r="G90" s="1">
-        <v>3</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.79037583134207889</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B91" s="1">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="1">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F91" s="1">
-        <v>35</v>
-      </c>
-      <c r="G91" s="1">
-        <v>18</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.79261566194075539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B92" s="1">
-        <v>91</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" s="1">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F92" s="1">
-        <v>35</v>
-      </c>
-      <c r="G92" s="1">
-        <v>74</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0.79507307114915082</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B93" s="1">
-        <v>92</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="1">
-        <v>6</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F93" s="1">
-        <v>35</v>
-      </c>
-      <c r="G93" s="1">
-        <v>17</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0.79585597526508789</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B94" s="1">
-        <v>93</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="1">
-        <v>4</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F94" s="1">
-        <v>35</v>
-      </c>
-      <c r="G94" s="1">
-        <v>12</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0.79916331057935974</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B95" s="1">
-        <v>94</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="1">
-        <v>13</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F95" s="1">
-        <v>35</v>
-      </c>
-      <c r="G95" s="1">
-        <v>38</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.81058728716957495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B96" s="1">
-        <v>95</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="1">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96" s="1">
-        <v>35</v>
-      </c>
-      <c r="G96" s="1">
-        <v>22</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0.81223563604436799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B97" s="1">
-        <v>96</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F97" s="1">
-        <v>35</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0.81303795780224863</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B98" s="1">
-        <v>97</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="1">
-        <v>15</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F98" s="1">
-        <v>35</v>
-      </c>
-      <c r="G98" s="1">
-        <v>45</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0.82642372997473135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B99" s="1">
-        <v>98</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" s="1">
-        <v>9</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F99" s="1">
-        <v>35</v>
-      </c>
-      <c r="G99" s="1">
-        <v>76</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0.82806415805409805</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B100" s="1">
-        <v>99</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="1">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F100" s="1">
-        <v>35</v>
-      </c>
-      <c r="G100" s="1">
-        <v>41</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0.82948423596904297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B101" s="1">
-        <v>100</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="1">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101" s="1">
-        <v>35</v>
-      </c>
-      <c r="G101" s="1">
-        <v>7</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0.82987256676864474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B102" s="1">
-        <v>101</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F102" s="1">
-        <v>35</v>
-      </c>
-      <c r="G102" s="1">
-        <v>49</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0.84334248242390764</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B103" s="1">
-        <v>102</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F103" s="1">
-        <v>35</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0.84424784937251218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B104" s="1">
-        <v>103</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="1">
-        <v>5</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F104" s="1">
-        <v>35</v>
-      </c>
-      <c r="G104" s="1">
-        <v>66</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0.84779829081383073</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B105" s="1">
-        <v>104</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="1">
-        <v>7</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F105" s="1">
-        <v>35</v>
-      </c>
-      <c r="G105" s="1">
-        <v>21</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0.8511659396578507</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B106" s="1">
-        <v>105</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="1">
-        <v>11</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F106" s="1">
-        <v>35</v>
-      </c>
-      <c r="G106" s="1">
-        <v>31</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.85472044295439453</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B107" s="1">
-        <v>106</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="1">
-        <v>4</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F107" s="1">
-        <v>35</v>
-      </c>
-      <c r="G107" s="1">
-        <v>11</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0.87559791334712911</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B108" s="1">
-        <v>107</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="1">
-        <v>6</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" s="1">
-        <v>35</v>
-      </c>
-      <c r="G108" s="1">
-        <v>67</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0.88742807509074961</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B109" s="1">
-        <v>108</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="1">
-        <v>11</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F109" s="1">
-        <v>35</v>
-      </c>
-      <c r="G109" s="1">
-        <v>82</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0.8932038113073113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B110" s="1">
-        <v>109</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="1">
-        <v>15</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F110" s="1">
-        <v>35</v>
-      </c>
-      <c r="G110" s="1">
-        <v>96</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0.90120292513271694</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B111" s="1">
-        <v>110</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="1">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F111" s="1">
-        <v>35</v>
-      </c>
-      <c r="G111" s="1">
-        <v>34</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0.90771740358808906</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B112" s="1">
-        <v>111</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" s="1">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F112" s="1">
-        <v>35</v>
-      </c>
-      <c r="G112" s="1">
-        <v>75</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0.9121065459919846</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B113" s="1">
-        <v>112</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="1">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F113" s="1">
-        <v>35</v>
-      </c>
-      <c r="G113" s="1">
-        <v>78</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0.91777745681770184</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B114" s="1">
-        <v>113</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" s="1">
-        <v>11</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F114" s="1">
-        <v>35</v>
-      </c>
-      <c r="G114" s="1">
-        <v>33</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0.94361641766470383</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B115" s="1">
-        <v>114</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F115" s="1">
-        <v>35</v>
-      </c>
-      <c r="G115" s="1">
-        <v>98</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0.95245829450670227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B116" s="1">
-        <v>115</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F116" s="1">
-        <v>35</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0.96371851600871228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B117" s="1">
-        <v>116</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" s="1">
-        <v>5</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F117" s="1">
-        <v>35</v>
-      </c>
-      <c r="G117" s="1">
-        <v>14</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0.96605032157138471</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B118" s="1">
-        <v>117</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="1">
-        <v>10</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F118" s="1">
-        <v>35</v>
-      </c>
-      <c r="G118" s="1">
-        <v>81</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0.98736081865207503</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B119" s="1">
-        <v>118</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F119" s="1">
-        <v>35</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0.98816576408029932</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B120" s="1">
-        <v>119</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="1">
-        <v>15</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F120" s="1">
-        <v>35</v>
-      </c>
-      <c r="G120" s="1">
-        <v>44</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0.98948802950427683</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B121" s="1">
-        <v>120</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="1">
-        <v>12</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F121" s="1">
-        <v>35</v>
-      </c>
-      <c r="G121" s="1">
-        <v>36</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.99696578028961802</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H121">
-    <sortCondition ref="H2:H121"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/raw-data/01-block-1-map.xlsx
+++ b/raw-data/01-block-1-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbf9a23e224bd51a/Documents/GitHub/Chlamydomonas_mic_JRL_2024/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1301" documentId="8_{FB8F087E-4114-4CD7-BBEF-6C25E970F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C5523A7-2CE2-4C67-A06D-4A80CA042ED8}"/>
+  <xr:revisionPtr revIDLastSave="1302" documentId="8_{FB8F087E-4114-4CD7-BBEF-6C25E970F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA88408-CE88-46E7-931D-773F620817E1}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="14" xr2:uid="{80F73A02-C2A8-4BE1-A957-DB27E471ED1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{80F73A02-C2A8-4BE1-A957-DB27E471ED1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -931,6 +931,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18267,7 +18271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB5EAEC-7CD0-4338-A5F1-30276D721733}">
   <dimension ref="A1:J1921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -77448,8 +77452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649A449-5C86-44C8-A944-C1F44E4DDF41}">
   <dimension ref="B1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R20" sqref="A1:R20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
